--- a/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/EER All Average EER Experiment result NCC with feature.xlsx
+++ b/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/EER All Average EER Experiment result NCC with feature.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab\Mobile Authentication\New Dataset HistogramxFeature\Experiment result NCC with feature\Sit Long\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F807CC-1075-4B99-9EE0-D4277CCB2EB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D13D9B-CEDF-4F74-82BD-AAA340CE37B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8190" activeTab="1" xr2:uid="{A8D1B1D5-B685-4625-B6BD-CCE713BBC9B7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="1" xr2:uid="{3081E00A-D571-4ACD-99E4-446BD5E1DC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,7 +371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5277C1-55E0-4D31-BF63-2F47A95389C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97C46F2-E3A3-4083-89BA-7D568B5BEFC0}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B179B4B-9790-4E81-9F11-A161876D420B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FB77CF-564F-4996-9480-E4344202C51E}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/EER All Average EER Experiment result NCC with feature.xlsx
+++ b/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/EER All Average EER Experiment result NCC with feature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab\Mobile Authentication\New Dataset HistogramxFeature\Experiment result NCC with feature\Sit Long\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D13D9B-CEDF-4F74-82BD-AAA340CE37B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8175E861-6D31-49D3-A8BF-0511AA8E91D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="1" xr2:uid="{3081E00A-D571-4ACD-99E4-446BD5E1DC7A}"/>
   </bookViews>
@@ -384,23 +384,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FB77CF-564F-4996-9480-E4344202C51E}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.49999999999999989</v>
+        <v>0.18909089850313116</v>
       </c>
       <c r="B1">
-        <v>0.49999999999999989</v>
+        <v>0.1883158691412665</v>
       </c>
       <c r="C1">
-        <v>0.49999999999999989</v>
+        <v>0.18950428968160471</v>
+      </c>
+      <c r="D1">
+        <v>0.18206111442472653</v>
+      </c>
+      <c r="E1">
+        <v>0.18689628297044972</v>
+      </c>
+      <c r="F1">
+        <v>0.18708011148677436</v>
       </c>
     </row>
   </sheetData>

--- a/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/EER All Average EER Experiment result NCC with feature.xlsx
+++ b/New Dataset HistogramxFeature/Experiment result NCC with feature/Sit Long/EER All Average EER Experiment result NCC with feature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab\Mobile Authentication\New Dataset HistogramxFeature\Experiment result NCC with feature\Sit Long\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8175E861-6D31-49D3-A8BF-0511AA8E91D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E402132E-87A7-485D-BED9-722C3AF645EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" activeTab="1" xr2:uid="{3081E00A-D571-4ACD-99E4-446BD5E1DC7A}"/>
   </bookViews>
@@ -394,10 +394,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.18909089850313116</v>
+        <v>0.19038650224361406</v>
       </c>
       <c r="B1">
-        <v>0.1883158691412665</v>
+        <v>0.188003943144016</v>
       </c>
       <c r="C1">
         <v>0.18950428968160471</v>
